--- a/data/trans_orig/P36BPD13_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>629152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>610844</v>
+        <v>611034</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>645090</v>
+        <v>645474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9146372656783285</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8880228592750539</v>
+        <v>0.8882984561459017</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9378081186613982</v>
+        <v>0.9383659954388546</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1153</v>
@@ -762,19 +762,19 @@
         <v>674188</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>659154</v>
+        <v>659318</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>685780</v>
+        <v>685444</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9265714528934026</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9059089401651933</v>
+        <v>0.9061339715621313</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9425024071339655</v>
+        <v>0.9420414701779406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1826</v>
@@ -783,19 +783,19 @@
         <v>1303341</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1281416</v>
+        <v>1281257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1323883</v>
+        <v>1323436</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9207719117408166</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9052826136393139</v>
+        <v>0.9051706148652747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.935284672225672</v>
+        <v>0.9349683683848208</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>58718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42780</v>
+        <v>42396</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77026</v>
+        <v>76836</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08536273432167153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06219188133860155</v>
+        <v>0.06163400456114554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1119771407249462</v>
+        <v>0.1117015438540987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>79</v>
@@ -833,19 +833,19 @@
         <v>53428</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41836</v>
+        <v>42172</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68462</v>
+        <v>68298</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07342854710659738</v>
+        <v>0.07342854710659739</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05749759286603501</v>
+        <v>0.05795852982205931</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09409105983480685</v>
+        <v>0.09386602843786866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -854,19 +854,19 @@
         <v>112146</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>91604</v>
+        <v>92051</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>134071</v>
+        <v>134230</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07922808825918343</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06471532777432798</v>
+        <v>0.06503163161517915</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0947173863606864</v>
+        <v>0.09482938513472514</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>914199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>887791</v>
+        <v>887252</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>940176</v>
+        <v>935956</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8757696940458933</v>
+        <v>0.8757696940458932</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8504718536623431</v>
+        <v>0.8499549694092031</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.900654000729429</v>
+        <v>0.8966121086799901</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1366</v>
@@ -979,19 +979,19 @@
         <v>959056</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>939344</v>
+        <v>939772</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>975358</v>
+        <v>974783</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9011127398944414</v>
+        <v>0.9011127398944412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8825913614464409</v>
+        <v>0.8829941356921528</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9164293841622523</v>
+        <v>0.9158894538641559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2219</v>
@@ -1000,19 +1000,19 @@
         <v>1873255</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1842831</v>
+        <v>1838621</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1906937</v>
+        <v>1901001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8885639570073403</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8741324288880643</v>
+        <v>0.8721352346276476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9045406230975784</v>
+        <v>0.9017248724239462</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>129682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>103705</v>
+        <v>107925</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>156090</v>
+        <v>156629</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1242303059541067</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09934599927057096</v>
+        <v>0.10338789132001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.149528146337657</v>
+        <v>0.1500450305907972</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>140</v>
@@ -1050,19 +1050,19 @@
         <v>105246</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>88944</v>
+        <v>89519</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>124958</v>
+        <v>124530</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09888726010555879</v>
+        <v>0.09888726010555877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08357061583774798</v>
+        <v>0.08411054613584372</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1174086385535592</v>
+        <v>0.1170058643078465</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>245</v>
@@ -1071,19 +1071,19 @@
         <v>234928</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>201246</v>
+        <v>207182</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>265352</v>
+        <v>269562</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1114360429926595</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09545937690242147</v>
+        <v>0.09827512757605431</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1258675711119355</v>
+        <v>0.1278647653723525</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>590782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>560365</v>
+        <v>561910</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>618688</v>
+        <v>616788</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7412852875509219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7031192242914296</v>
+        <v>0.7050579601703636</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7762997569362355</v>
+        <v>0.7739166367926874</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>860</v>
@@ -1196,19 +1196,19 @@
         <v>663103</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>640593</v>
+        <v>640843</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>681671</v>
+        <v>681234</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8242998317227008</v>
+        <v>0.8242998317227009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7963182478097601</v>
+        <v>0.7966284669787871</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8473815976195425</v>
+        <v>0.8468379738840688</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1365</v>
@@ -1217,19 +1217,19 @@
         <v>1253886</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1210511</v>
+        <v>1217027</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1283371</v>
+        <v>1291935</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.782986273825734</v>
+        <v>0.7829862738257339</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7559005692152901</v>
+        <v>0.7599699488905755</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8013978523658187</v>
+        <v>0.8067458208112401</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>206188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178282</v>
+        <v>180182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236605</v>
+        <v>235060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2587147124490781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2237002430637645</v>
+        <v>0.2260833632073125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2968807757085709</v>
+        <v>0.2949420398296363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -1267,19 +1267,19 @@
         <v>141341</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122773</v>
+        <v>123210</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163851</v>
+        <v>163601</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.175700168277299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1526184023804574</v>
+        <v>0.1531620261159312</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2036817521902398</v>
+        <v>0.203371533021213</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>344</v>
@@ -1288,19 +1288,19 @@
         <v>347529</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>318044</v>
+        <v>309480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>390904</v>
+        <v>384388</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2170137261742661</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1986021476341814</v>
+        <v>0.1932541791887598</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2440994307847099</v>
+        <v>0.2400300511094246</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>834243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>810280</v>
+        <v>807927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>859174</v>
+        <v>858104</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8488487198311929</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8244663932329649</v>
+        <v>0.8220722465097622</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8742168217638985</v>
+        <v>0.8731283322943697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1349</v>
@@ -1413,19 +1413,19 @@
         <v>955352</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>931220</v>
+        <v>933347</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>974899</v>
+        <v>973307</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8616438208956138</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8398786305934137</v>
+        <v>0.8417970260430944</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8792736617380126</v>
+        <v>0.8778378279543847</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2203</v>
@@ -1434,19 +1434,19 @@
         <v>1789594</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1755924</v>
+        <v>1755379</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1825223</v>
+        <v>1817951</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8556315587505468</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8395335567243092</v>
+        <v>0.8392729627219532</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8726665296362811</v>
+        <v>0.8691898054070311</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>148550</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123619</v>
+        <v>124689</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172513</v>
+        <v>174866</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.151151280168807</v>
+        <v>0.1511512801688069</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1257831782361015</v>
+        <v>0.1268716677056302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.175533606767035</v>
+        <v>0.1779277534902375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>201</v>
@@ -1484,19 +1484,19 @@
         <v>153403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>133856</v>
+        <v>135448</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177535</v>
+        <v>175408</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1383561791043862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1207263382619873</v>
+        <v>0.1221621720456152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1601213694065859</v>
+        <v>0.1582029739569054</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>344</v>
@@ -1505,19 +1505,19 @@
         <v>301953</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>266324</v>
+        <v>273596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>335623</v>
+        <v>336168</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1443684412494533</v>
+        <v>0.1443684412494532</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1273334703637191</v>
+        <v>0.1308101945929692</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1604664432756908</v>
+        <v>0.1607270372780469</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>2968376</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2914113</v>
+        <v>2922556</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3009598</v>
+        <v>3015594</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.845326425780371</v>
+        <v>0.8453264257803711</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.829873321678135</v>
+        <v>0.8322776823095459</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8570653298676769</v>
+        <v>0.8587730435523189</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4728</v>
@@ -1630,19 +1630,19 @@
         <v>3251699</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3215438</v>
+        <v>3212284</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3288380</v>
+        <v>3284465</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8776239074018507</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8678371637941322</v>
+        <v>0.8669858608423148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8875238759770414</v>
+        <v>0.8864671590060592</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7613</v>
@@ -1651,19 +1651,19 @@
         <v>6220076</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6155744</v>
+        <v>6159507</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6280949</v>
+        <v>6279457</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8619083928919502</v>
+        <v>0.8619083928919503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8529940363236866</v>
+        <v>0.8535154489204244</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8703435441922889</v>
+        <v>0.8701367789118254</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>543139</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>501917</v>
+        <v>495921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>597402</v>
+        <v>588959</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1546735742196289</v>
+        <v>0.154673574219629</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1429346701323231</v>
+        <v>0.1412269564476809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1701266783218651</v>
+        <v>0.1677223176904542</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>598</v>
@@ -1701,19 +1701,19 @@
         <v>453418</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>416737</v>
+        <v>420652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>489679</v>
+        <v>492833</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1223760925981493</v>
+        <v>0.1223760925981494</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1124761240229586</v>
+        <v>0.1135328409939409</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1321628362058677</v>
+        <v>0.1330141391576853</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1066</v>
@@ -1722,19 +1722,19 @@
         <v>996556</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>935683</v>
+        <v>937175</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1060888</v>
+        <v>1057125</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1380916071080496</v>
+        <v>0.1380916071080497</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1296564558077111</v>
+        <v>0.1298632210881745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1470059636763136</v>
+        <v>0.1464845510795754</v>
       </c>
     </row>
     <row r="18">
